--- a/src/main/java/com/crm/qa/testdata/RandomFirstLastNames.xlsx
+++ b/src/main/java/com/crm/qa/testdata/RandomFirstLastNames.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ISharaf\workspace\POM_Updated\src\main\java\com\crm\qa\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1AB09F-0C07-4BB1-ACEA-23B9AF0CF137}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569F097C-DFEC-4D6C-BE18-4A43F9487F15}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32550" yWindow="4245" windowWidth="17280" windowHeight="9030" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,30 +28,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>Peter</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Cris</t>
-  </si>
-  <si>
-    <t>Mukta</t>
-  </si>
-  <si>
-    <t>Sharma</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>FirstName</t>
   </si>
   <si>
     <t>LastName</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sophia </t>
+  </si>
+  <si>
+    <t>Franklin</t>
+  </si>
+  <si>
+    <t>Guadalupe</t>
+  </si>
+  <si>
+    <t>Wade</t>
+  </si>
+  <si>
+    <t>Jenny</t>
+  </si>
+  <si>
+    <t>Pierce</t>
+  </si>
+  <si>
+    <t>Phillip</t>
+  </si>
+  <si>
+    <t>Crawford</t>
+  </si>
+  <si>
+    <t>Nora</t>
+  </si>
+  <si>
+    <t>Vasquez</t>
+  </si>
+  <si>
+    <t>Joey</t>
+  </si>
+  <si>
+    <t>Hernandez</t>
+  </si>
+  <si>
+    <t>Jesus</t>
+  </si>
+  <si>
+    <t>Bennett</t>
+  </si>
+  <si>
+    <t>Mercedes</t>
+  </si>
+  <si>
+    <t>Abbott</t>
+  </si>
+  <si>
+    <t>Lewis</t>
+  </si>
+  <si>
+    <t>Dennis</t>
   </si>
 </sst>
 </file>
@@ -384,47 +426,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>